--- a/tests/conf.example-1.xlsx
+++ b/tests/conf.example-1.xlsx
@@ -582,7 +582,7 @@
   <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -608,35 +608,43 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
+      <c r="A2" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>34</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
@@ -645,45 +653,37 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>2</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="B4" s="7"/>
       <c r="C4" s="7"/>
       <c r="D4" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
+        <v>5</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
-      <c r="D5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
@@ -697,27 +697,27 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
+      <c r="D7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="3" t="s">
-        <v>4</v>
-      </c>
+      <c r="A8" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="3"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
